--- a/data/data_minerals/USGS/USGS_mineral_yearbook.xlsx
+++ b/data/data_minerals/USGS/USGS_mineral_yearbook.xlsx
@@ -5,15 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp_ma\OneDrive - polymtlus\Desktop\POST_DOC\Project\plca_metals_github\plca_metals\data\data_minerals\USGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/plca_metals_github/plca_metals/data/data_minerals/USGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0093C0-0E66-4485-936E-AE5475C25BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{3B0093C0-0E66-4485-936E-AE5475C25BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F3AD57-9A9E-4A37-993C-ABDC3D9B7912}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="7" r:id="rId1"/>
+    <sheet name="availability" sheetId="1" r:id="rId2"/>
+    <sheet name="aluminium" sheetId="2" r:id="rId3"/>
+    <sheet name="copper" sheetId="3" r:id="rId4"/>
+    <sheet name="nickel" sheetId="4" r:id="rId5"/>
+    <sheet name="graphite" sheetId="5" r:id="rId6"/>
+    <sheet name="silicon" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>Mineral</t>
   </si>
@@ -132,9 +138,6 @@
     <t>Mineral yearbook unit</t>
   </si>
   <si>
-    <t>tonnes</t>
-  </si>
-  <si>
     <t>Mine production, smelter, refinery</t>
   </si>
   <si>
@@ -244,13 +247,231 @@
   </si>
   <si>
     <t>Production from coproduct steel slag and primary ores only</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Mine/Smelting/Refinery</t>
+  </si>
+  <si>
+    <t>Primary/Secondary/Total</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>tons, copper content</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total|Concentrates</t>
+  </si>
+  <si>
+    <t>Total|Leaching, electrowon</t>
+  </si>
+  <si>
+    <t>Total|Primary</t>
+  </si>
+  <si>
+    <t>Total|Secondary</t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>Total|Primary|Leaching, electrowon</t>
+  </si>
+  <si>
+    <t>Total|Primary|Other</t>
+  </si>
+  <si>
+    <t>thousand metric tons</t>
+  </si>
+  <si>
+    <t>tons, copper content (mine and smelter production), tons (refinery production)</t>
+  </si>
+  <si>
+    <t>Primary aluminum is defined as “The weight of liquid aluminum as tapped from pots, excluding the weight of any alloying materials as well as that of any metal produced from either returned scrap of remelted material.” International reporting practices vary from country to country, some nations conforming to the foregoing definition and others using different definitions. For those countries for which a different definition is given specifically in the source publication, the definition is provided in a footnote.</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Thousands tons</t>
+  </si>
+  <si>
+    <t>Total|Ferronickel</t>
+  </si>
+  <si>
+    <t>Total|Chemicals</t>
+  </si>
+  <si>
+    <t>Total|Metal</t>
+  </si>
+  <si>
+    <t>Total|Oxide sinter</t>
+  </si>
+  <si>
+    <t>Total|Unspecified</t>
+  </si>
+  <si>
+    <t>tons, nickel content</t>
+  </si>
+  <si>
+    <t>Refinery?</t>
+  </si>
+  <si>
+    <t>Primary nickel refers to a nickel product ready for use by downstream consuming industries such as nickel chemicals and salts, ferronickel, nickel metal in various forms, nickel oxide sinter, and nickel pig iron. The USGS does not use the terms class I and class II nickel as defined by the International Nickel Study Group (INSG). However, nickel metal reported here is generally equivalent to Class I nickel which is defined by INSG as nickel with a mininum nickel content of 99% in the form of briquets, cathodes (i.e., electrolytic nickel), flakes or powders, granules, pellets, and rondelles. Ferronickel, nickel oxide sinter, and nickel pig iron are classified by INSG as Class II. Chemicals, although typically produced at refineries, are differentiated from production of metal when feasible. Several countries produced nickel-containing matte and other intermediates, but output of nickel in such materials has been excluded from this table to avoid double counting</t>
+  </si>
+  <si>
+    <t>Total|Amorphous</t>
+  </si>
+  <si>
+    <t>Total|Crystalline flake</t>
+  </si>
+  <si>
+    <t>Total|Vein or lump</t>
+  </si>
+  <si>
+    <t>tons, gross weight</t>
+  </si>
+  <si>
+    <t>Total|Ferrosilicon</t>
+  </si>
+  <si>
+    <t>Total|Silicon metal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Affiliations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>TAB_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title of the article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  "Metals for the Energy Transition: A Heavy Environmental Burden to Life?"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Anne de Bortoli, Marin Pellan, Marguerite Fauroux</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Joule</t>
+    </r>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>https://www.usgs.gov/centers/national-minerals-information-center/minerals-yearbook-metals-and-minerals</t>
+  </si>
+  <si>
+    <t>Manual collection of data for the relevant metals, for the latest year available</t>
+  </si>
+  <si>
+    <t>Recap of data availability for USGS (Mineral Commodities Summary and Mineral Yearbook) and World Mining Data. See the 'Minerals_data' notebook for data treatment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +487,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,14 +519,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,11 +808,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D875D3-3CEF-4138-8A32-CAA36467249A}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="102.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,24 +913,27 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -641,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -663,30 +982,30 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>2020</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,10 +1013,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -705,13 +1024,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,13 +1038,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,21 +1052,21 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,10 +1074,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,13 +1085,13 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,13 +1099,13 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -794,13 +1113,13 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,10 +1127,10 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,24 +1149,24 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,10 +1174,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,10 +1185,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -877,21 +1196,21 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -899,10 +1218,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,13 +1229,13 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,10 +1243,10 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -935,13 +1254,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -949,10 +1268,10 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -960,13 +1279,13 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -974,10 +1293,667 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0818000-89F3-4293-9F40-CD64483D178A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>67500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6414033-C2DD-47E8-901D-18D9ED66D811}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>20600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>16400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>4190000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>21200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>17800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>3390000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>21100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>4190000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>16900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>3970000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D181D6C-4F19-4ED8-B548-901361C7A331}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>2560000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>117000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>1570000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>695000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>65900</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>109000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51AEC4E-AC7C-4E37-892E-5B03EDD7B176}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>3300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29303D-C20E-4172-A180-D50207CD1AC1}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>8360000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>3750000</v>
       </c>
     </row>
   </sheetData>
